--- a/Data 2018.xlsx
+++ b/Data 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,12 +477,14 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
